--- a/doc/アーキテクチャー.xlsx
+++ b/doc/アーキテクチャー.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="ライブラリ・FW" sheetId="1" r:id="rId1"/>
+    <sheet name="処理の流れ" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>クライアント</t>
     <phoneticPr fontId="1"/>
@@ -240,6 +241,88 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発中だけ利用するライブラリ・ツール等</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JUnit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java のテスティングフレームワーク。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JMockit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モックフレームワーク。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jasmine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaScript のテスティングフレームワーク。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gradle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Grunt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java のタスク自動化ツール。ビルド・テストを自動化させる。</t>
+    <rPh sb="9" eb="12">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ジドウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロントエンドのタスク自動化ツール。TypeScript のコンパイル・ minify を自動化させる。</t>
+    <rPh sb="11" eb="14">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>ジドウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apache Commons DBCP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースコネクションのプーリング機能を提供するライブラリ。</t>
+    <rPh sb="18" eb="20">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テイキョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -912,14 +995,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>5336</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>30185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>24384</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99393</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -928,8 +1011,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="605873" y="5032879"/>
-          <a:ext cx="6674127" cy="540853"/>
+          <a:off x="605873" y="5049446"/>
+          <a:ext cx="6674127" cy="591012"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -969,13 +1052,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>218613</xdr:rowOff>
+      <xdr:rowOff>235179</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>33131</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>72010</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>96859</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -984,7 +1067,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="605873" y="4384765"/>
+          <a:off x="605873" y="4401331"/>
           <a:ext cx="3999258" cy="540854"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1025,13 +1108,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>109671</xdr:rowOff>
+      <xdr:rowOff>126237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>165652</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>123362</xdr:rowOff>
+      <xdr:rowOff>139928</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1040,7 +1123,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="605873" y="3762301"/>
+          <a:off x="605873" y="3778867"/>
           <a:ext cx="1547605" cy="527213"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1079,15 +1162,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>82826</xdr:colOff>
+      <xdr:colOff>51765</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>109671</xdr:rowOff>
+      <xdr:rowOff>126237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>26919</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>107673</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>123362</xdr:rowOff>
+      <xdr:rowOff>139928</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1096,8 +1179,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2269435" y="3762301"/>
-          <a:ext cx="2329484" cy="527213"/>
+          <a:off x="2238374" y="3778867"/>
+          <a:ext cx="1844951" cy="527213"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1123,10 +1206,17 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>Apache Commons Lang</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Apache Commons</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Lang</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1134,16 +1224,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>115958</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>194644</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>109671</xdr:rowOff>
+      <xdr:rowOff>126237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>194642</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>49695</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>123362</xdr:rowOff>
+      <xdr:rowOff>139928</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1152,8 +1242,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4687958" y="3762301"/>
-          <a:ext cx="1271380" cy="527213"/>
+          <a:off x="4170296" y="3778867"/>
+          <a:ext cx="848964" cy="527213"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1193,13 +1283,13 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>115957</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>218613</xdr:rowOff>
+      <xdr:rowOff>235179</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>72010</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>96859</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1208,7 +1298,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4687957" y="4384765"/>
+          <a:off x="4687957" y="4401331"/>
           <a:ext cx="2582516" cy="540854"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1246,16 +1336,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>87797</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>124241</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>109671</xdr:rowOff>
+      <xdr:rowOff>126237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>107674</xdr:colOff>
+      <xdr:colOff>104362</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>123362</xdr:rowOff>
+      <xdr:rowOff>139928</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1264,8 +1354,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6051275" y="3762301"/>
-          <a:ext cx="1212573" cy="527213"/>
+          <a:off x="6485284" y="3778867"/>
+          <a:ext cx="775252" cy="527213"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1309,6 +1399,69 @@
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>120100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>126237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>33132</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139928</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5089665" y="3778867"/>
+          <a:ext cx="1304510" cy="527213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>Apache Commons</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>DBCP</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1604,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AP19"/>
+  <dimension ref="B2:AP36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AO9" sqref="AO9"/>
+      <selection activeCell="AM15" sqref="AM15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1727,17 +1880,125 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="41:42" x14ac:dyDescent="0.15">
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="6"/>
+    <row r="18" spans="41:42" ht="27" x14ac:dyDescent="0.15">
+      <c r="AO18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP18" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="41:42" x14ac:dyDescent="0.15">
       <c r="AO19" s="5"/>
       <c r="AP19" s="6"/>
     </row>
+    <row r="22" spans="41:42" x14ac:dyDescent="0.15">
+      <c r="AO22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="41:42" x14ac:dyDescent="0.15">
+      <c r="AO23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP23" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="41:42" x14ac:dyDescent="0.15">
+      <c r="AO24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP24" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="41:42" x14ac:dyDescent="0.15">
+      <c r="AO25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP25" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="41:42" x14ac:dyDescent="0.15">
+      <c r="AO26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP26" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="41:42" ht="27" x14ac:dyDescent="0.15">
+      <c r="AO27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP27" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="41:42" ht="27" x14ac:dyDescent="0.15">
+      <c r="AO28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP28" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="41:42" x14ac:dyDescent="0.15">
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="6"/>
+    </row>
+    <row r="30" spans="41:42" x14ac:dyDescent="0.15">
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="6"/>
+    </row>
+    <row r="31" spans="41:42" x14ac:dyDescent="0.15">
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="6"/>
+    </row>
+    <row r="32" spans="41:42" x14ac:dyDescent="0.15">
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="6"/>
+    </row>
+    <row r="33" spans="41:42" x14ac:dyDescent="0.15">
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="6"/>
+    </row>
+    <row r="34" spans="41:42" x14ac:dyDescent="0.15">
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="6"/>
+    </row>
+    <row r="35" spans="41:42" x14ac:dyDescent="0.15">
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="6"/>
+    </row>
+    <row r="36" spans="41:42" x14ac:dyDescent="0.15">
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="2.375" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/アーキテクチャー.xlsx
+++ b/doc/アーキテクチャー.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="ライブラリ・FW" sheetId="1" r:id="rId1"/>
-    <sheet name="処理の流れ" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>クライアント</t>
     <phoneticPr fontId="1"/>
@@ -323,6 +322,34 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Log4j</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slf4j</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロギングライブラリ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Commons Logging のようにロギングのインターフェースを定義したライブラリ。ログ文字列に遅延評価を利用できる。</t>
+    <rPh sb="34" eb="36">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="50" eb="54">
+      <t>チエンヒョウカ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>リヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -993,16 +1020,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>30185</xdr:rowOff>
+      <xdr:rowOff>71597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>99393</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>7870</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1011,8 +1038,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="605873" y="5049446"/>
-          <a:ext cx="6674127" cy="591012"/>
+          <a:off x="372718" y="5090858"/>
+          <a:ext cx="7188891" cy="591012"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1049,16 +1076,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>235179</xdr:rowOff>
+      <xdr:rowOff>276592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>33131</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>96859</xdr:rowOff>
+      <xdr:rowOff>138271</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1067,8 +1094,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="605873" y="4401331"/>
-          <a:ext cx="3999258" cy="540854"/>
+          <a:off x="1225826" y="4442744"/>
+          <a:ext cx="3660914" cy="540853"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1105,16 +1132,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>126237</xdr:rowOff>
+      <xdr:rowOff>167649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>165652</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>139928</xdr:rowOff>
+      <xdr:rowOff>181341</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1123,8 +1150,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="605873" y="3778867"/>
-          <a:ext cx="1547605" cy="527213"/>
+          <a:off x="1225826" y="3820279"/>
+          <a:ext cx="1366630" cy="527214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1161,16 +1188,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>51765</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>126237</xdr:rowOff>
+      <xdr:rowOff>167649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>107673</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>139928</xdr:rowOff>
+      <xdr:rowOff>181341</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1179,8 +1206,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2238374" y="3778867"/>
-          <a:ext cx="1844951" cy="527213"/>
+          <a:off x="2667000" y="3820279"/>
+          <a:ext cx="1697934" cy="527214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1224,16 +1251,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>194644</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>78688</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>126237</xdr:rowOff>
+      <xdr:rowOff>167649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>49695</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>132521</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>139928</xdr:rowOff>
+      <xdr:rowOff>181341</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1242,8 +1269,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4170296" y="3778867"/>
-          <a:ext cx="848964" cy="527213"/>
+          <a:off x="4451905" y="3820279"/>
+          <a:ext cx="848964" cy="527214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1280,16 +1307,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>115957</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>235179</xdr:rowOff>
+      <xdr:rowOff>276592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>197125</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>96859</xdr:rowOff>
+      <xdr:rowOff>138271</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1298,8 +1325,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4687957" y="4401331"/>
-          <a:ext cx="2582516" cy="540854"/>
+          <a:off x="4969566" y="4442744"/>
+          <a:ext cx="2582516" cy="540853"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1336,16 +1363,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>124241</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>8284</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>126237</xdr:rowOff>
+      <xdr:rowOff>167649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>104362</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>187188</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>139928</xdr:rowOff>
+      <xdr:rowOff>181341</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1354,8 +1381,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6485284" y="3778867"/>
-          <a:ext cx="775252" cy="527213"/>
+          <a:off x="6766893" y="3820279"/>
+          <a:ext cx="775252" cy="527214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1406,16 +1433,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>120100</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>4144</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>126237</xdr:rowOff>
+      <xdr:rowOff>167649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>33132</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>115958</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>139928</xdr:rowOff>
+      <xdr:rowOff>181341</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1424,8 +1451,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5089665" y="3778867"/>
-          <a:ext cx="1304510" cy="527213"/>
+          <a:off x="5371274" y="3820279"/>
+          <a:ext cx="1304510" cy="527214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1460,6 +1487,118 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
             <a:t>DBCP</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175176</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>281609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>132521</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>148209</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="373959" y="4447761"/>
+          <a:ext cx="752475" cy="545774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>Log4j</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>140805</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>181341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="372718" y="3820279"/>
+          <a:ext cx="762000" cy="527214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>Slf4j</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -1757,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AP36"/>
+  <dimension ref="B2:AP38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AM15" sqref="AM15"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1889,69 +2028,77 @@
       </c>
     </row>
     <row r="19" spans="41:42" x14ac:dyDescent="0.15">
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="6"/>
-    </row>
-    <row r="22" spans="41:42" x14ac:dyDescent="0.15">
-      <c r="AO22" s="1" t="s">
+      <c r="AO19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP19" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="41:42" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="AO20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP20" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="41:42" x14ac:dyDescent="0.15">
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="6"/>
+    </row>
+    <row r="24" spans="41:42" x14ac:dyDescent="0.15">
+      <c r="AO24" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="41:42" x14ac:dyDescent="0.15">
-      <c r="AO23" s="4" t="s">
+    <row r="25" spans="41:42" x14ac:dyDescent="0.15">
+      <c r="AO25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AP23" s="4" t="s">
+      <c r="AP25" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="41:42" x14ac:dyDescent="0.15">
-      <c r="AO24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP24" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="41:42" x14ac:dyDescent="0.15">
-      <c r="AO25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP25" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="26" spans="41:42" x14ac:dyDescent="0.15">
       <c r="AO26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP26" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="41:42" x14ac:dyDescent="0.15">
+      <c r="AO27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP27" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="41:42" x14ac:dyDescent="0.15">
+      <c r="AO28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AP26" s="6" t="s">
+      <c r="AP28" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="41:42" ht="27" x14ac:dyDescent="0.15">
-      <c r="AO27" s="5" t="s">
+    <row r="29" spans="41:42" ht="27" x14ac:dyDescent="0.15">
+      <c r="AO29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AP27" s="6" t="s">
+      <c r="AP29" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="41:42" ht="27" x14ac:dyDescent="0.15">
-      <c r="AO28" s="5" t="s">
+    <row r="30" spans="41:42" ht="27" x14ac:dyDescent="0.15">
+      <c r="AO30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AP28" s="6" t="s">
+      <c r="AP30" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="41:42" x14ac:dyDescent="0.15">
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="6"/>
-    </row>
-    <row r="30" spans="41:42" x14ac:dyDescent="0.15">
-      <c r="AO30" s="5"/>
-      <c r="AP30" s="6"/>
     </row>
     <row r="31" spans="41:42" x14ac:dyDescent="0.15">
       <c r="AO31" s="5"/>
@@ -1976,6 +2123,14 @@
     <row r="36" spans="41:42" x14ac:dyDescent="0.15">
       <c r="AO36" s="5"/>
       <c r="AP36" s="6"/>
+    </row>
+    <row r="37" spans="41:42" x14ac:dyDescent="0.15">
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="6"/>
+    </row>
+    <row r="38" spans="41:42" x14ac:dyDescent="0.15">
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1983,22 +2138,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="16384" width="2.375" style="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/アーキテクチャー.xlsx
+++ b/doc/アーキテクチャー.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" tabRatio="345"/>
   </bookViews>
   <sheets>
     <sheet name="ライブラリ・FW" sheetId="1" r:id="rId1"/>
@@ -14,17 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>クライアント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AngularJS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Underscore.js</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -56,10 +48,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>jQuery</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Google が開発している JavaScript 用の MVC フレームワーク。</t>
     <rPh sb="8" eb="10">
       <t>カイハツ</t>
@@ -96,10 +84,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Bootstrap</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Twitter が開発している CSS フレームワーク。簡単にモダンで、レスポンシブなページを作成することができる。</t>
     <rPh sb="9" eb="11">
       <t>カイハツ</t>
@@ -113,10 +97,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Jersey</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Web RESTful API を実装するためのフレームワーク。JAX-RS のリファレンス実装。</t>
     <rPh sb="17" eb="19">
       <t>ジッソウ</t>
@@ -127,10 +107,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HK2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Jersey2 に組み込まれている DI 機能を提供するライブラリ。JSR330 を実装している。</t>
     <rPh sb="9" eb="10">
       <t>ク</t>
@@ -150,10 +126,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Apache Commons Lang</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>汎用的な Java ライブラリ。</t>
     <rPh sb="0" eb="3">
       <t>ハンヨウテキ</t>
@@ -161,14 +133,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Persist</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HSQLDB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>100% Java で実装された軽量な RDB。組み込み利用に向いている。</t>
     <rPh sb="11" eb="13">
       <t>ジッソウ</t>
@@ -191,10 +155,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Jetty</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>軽量なサーブレットコンテナ。組み込みでの利用が可能。</t>
     <rPh sb="0" eb="2">
       <t>ケイリョウ</t>
@@ -224,10 +184,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Flyway</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データベースマイグレーションツール。組み込みでの利用が可能。</t>
     <rPh sb="18" eb="19">
       <t>ク</t>
@@ -312,10 +268,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Apache Commons DBCP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データベースコネクションのプーリング機能を提供するライブラリ。</t>
     <rPh sb="18" eb="20">
       <t>キノウ</t>
@@ -326,14 +278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Log4j</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Slf4j</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ロギングライブラリ。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -352,6 +296,128 @@
       <t>リヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライセンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AngularJS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/angular/angular.js/blob/master/LICENSE</t>
+  </si>
+  <si>
+    <t>Underscore.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/jashkenas/underscore/blob/master/LICENSE</t>
+  </si>
+  <si>
+    <t>jQuery</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/jquery/jquery/blob/master/LICENSE.txt#L12</t>
+  </si>
+  <si>
+    <t>Bootstrap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/twbs/bootstrap/blob/master/LICENSE</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://jersey.java.net/license.html</t>
+  </si>
+  <si>
+    <t>CDDL Version1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HK2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://hk2.java.net/2.3.0-b09/license.html</t>
+  </si>
+  <si>
+    <t>Apache Commons Lang</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.apache.org/licenses/</t>
+  </si>
+  <si>
+    <t>Apache License, Version 2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Persist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/rufiao/persist#license</t>
+  </si>
+  <si>
+    <t>HSQLDB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三条項BSDライセンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二条項BSDライセンス</t>
+    <rPh sb="0" eb="1">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://hsqldb.org/web/hsqlLicense.html</t>
+  </si>
+  <si>
+    <t>Jetty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.eclipse.org/jetty/licenses.php</t>
+  </si>
+  <si>
+    <t>Flyway</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/flyway/flyway/master/LICENSE.txt</t>
+  </si>
+  <si>
+    <t>Apache Commons DBCP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Log4j</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://logging.apache.org/log4j/2.x/license.html</t>
+  </si>
+  <si>
+    <t>Slf4j</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.slf4j.org/license.html</t>
   </si>
 </sst>
 </file>
@@ -1896,215 +1962,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AP38"/>
+  <dimension ref="B2:AR38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="40" width="2.625" style="1"/>
     <col min="41" max="41" width="21.625" style="1" customWidth="1"/>
     <col min="42" max="42" width="45.375" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="2.625" style="1"/>
+    <col min="43" max="43" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:42" ht="21" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:44" ht="21" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:42" ht="18.75" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:44" ht="18.75" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:44" x14ac:dyDescent="0.15">
       <c r="AO6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:44" ht="27" x14ac:dyDescent="0.15">
+      <c r="AO7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AP6" s="4" t="s">
+      <c r="AQ7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:44" ht="27" x14ac:dyDescent="0.15">
+      <c r="AO8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP8" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:42" ht="27" x14ac:dyDescent="0.15">
-      <c r="AO7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="6" t="s">
+      <c r="AQ8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:44" ht="27" x14ac:dyDescent="0.15">
+      <c r="AO9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:44" ht="27" x14ac:dyDescent="0.15">
+      <c r="AO10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP10" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:42" ht="27" x14ac:dyDescent="0.15">
-      <c r="AO8" s="5" t="s">
+      <c r="AQ10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:44" ht="27" x14ac:dyDescent="0.15">
+      <c r="AO11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:44" ht="27" x14ac:dyDescent="0.15">
+      <c r="AO12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:44" x14ac:dyDescent="0.15">
+      <c r="AO13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:44" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AP8" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:42" ht="27" x14ac:dyDescent="0.15">
-      <c r="AO9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP9" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:42" ht="27" x14ac:dyDescent="0.15">
-      <c r="AO10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP10" s="6" t="s">
+      <c r="AO14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:44" ht="27" x14ac:dyDescent="0.15">
+      <c r="AO15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP15" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="2:42" ht="27" x14ac:dyDescent="0.15">
-      <c r="AO11" s="5" t="s">
+      <c r="AQ15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:44" x14ac:dyDescent="0.15">
+      <c r="AO16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AP11" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:42" ht="27" x14ac:dyDescent="0.15">
-      <c r="AO12" s="5" t="s">
+      <c r="AQ16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="41:44" ht="27" x14ac:dyDescent="0.15">
+      <c r="AO17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AP12" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="AO13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP13" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:42" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP14" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:42" ht="27" x14ac:dyDescent="0.15">
-      <c r="AO15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AP15" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="AO16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP16" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="41:42" ht="27" x14ac:dyDescent="0.15">
-      <c r="AO17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP17" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="41:42" ht="27" x14ac:dyDescent="0.15">
+      <c r="AQ17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="41:44" ht="27" x14ac:dyDescent="0.15">
       <c r="AO18" s="5" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AP18" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="41:42" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="AQ18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="41:44" x14ac:dyDescent="0.15">
       <c r="AO19" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="AP19" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="41:42" ht="40.5" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="AQ19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="41:44" ht="40.5" x14ac:dyDescent="0.15">
       <c r="AO20" s="5" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="AP20" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="41:42" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="AQ20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="41:44" x14ac:dyDescent="0.15">
       <c r="AO21" s="5"/>
       <c r="AP21" s="6"/>
-    </row>
-    <row r="24" spans="41:42" x14ac:dyDescent="0.15">
+      <c r="AQ21" s="6"/>
+    </row>
+    <row r="24" spans="41:44" x14ac:dyDescent="0.15">
       <c r="AO24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="41:42" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="41:44" x14ac:dyDescent="0.15">
       <c r="AO25" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP25" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="41:42" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="41:44" x14ac:dyDescent="0.15">
       <c r="AO26" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AP26" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="41:42" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="41:44" x14ac:dyDescent="0.15">
       <c r="AO27" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AP27" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="41:42" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="41:44" x14ac:dyDescent="0.15">
       <c r="AO28" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AP28" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="41:42" ht="27" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="41:44" ht="27" x14ac:dyDescent="0.15">
       <c r="AO29" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AP29" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="41:42" ht="27" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="41:44" ht="27" x14ac:dyDescent="0.15">
       <c r="AO30" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="AP30" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="41:42" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="41:44" x14ac:dyDescent="0.15">
       <c r="AO31" s="5"/>
       <c r="AP31" s="6"/>
     </row>
-    <row r="32" spans="41:42" x14ac:dyDescent="0.15">
+    <row r="32" spans="41:44" x14ac:dyDescent="0.15">
       <c r="AO32" s="5"/>
       <c r="AP32" s="6"/>
     </row>

--- a/doc/アーキテクチャー.xlsx
+++ b/doc/アーキテクチャー.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>クライアント</t>
     <phoneticPr fontId="1"/>
@@ -418,6 +418,14 @@
   </si>
   <si>
     <t>http://www.slf4j.org/license.html</t>
+  </si>
+  <si>
+    <t>DBUnit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースのテストをするためのライブラリ。</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2254,8 +2262,12 @@
       </c>
     </row>
     <row r="31" spans="41:44" x14ac:dyDescent="0.15">
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="6"/>
+      <c r="AO31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP31" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="32" spans="41:44" x14ac:dyDescent="0.15">
       <c r="AO32" s="5"/>

--- a/doc/アーキテクチャー.xlsx
+++ b/doc/アーキテクチャー.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" tabRatio="345"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" tabRatio="345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ライブラリ・FW" sheetId="1" r:id="rId1"/>
+    <sheet name="データベーステスト" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>クライアント</t>
     <phoneticPr fontId="1"/>
@@ -425,6 +426,111 @@
   </si>
   <si>
     <t>データベースのテストをするためのライブラリ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cmtest-db</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBUnit を JUnit4 流に記述できるようにしたヘルパーライブラリ。
+JUnit 実践入門の著者である渡辺修司さんが所属する「クラスメソッド株式会社」が公開しているオープンソースのライブラリ。</t>
+    <rPh sb="16" eb="17">
+      <t>リュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジッセン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニュウモン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>チョシャ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ワタナベ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シュウジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="74" eb="78">
+      <t>カブシキカイシャ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースのテスト方法</t>
+    <rPh sb="10" eb="12">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flyway は、 src/test/java/rusk/test/MigrateTestDatabase を手動で実行する。</t>
+    <rPh sb="55" eb="57">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flyway を使って、テスト用 DB の状態を最新にする。</t>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testdb/rusk にテスト用の DB を作成する。</t>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBUnit（をラップした cmtest-db）を使ってテストを作成・実行する。</t>
+    <rPh sb="25" eb="26">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト DB に接続した Persist インスタンスを取得できるようにする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リポジトリクラスが使用する Persist のインスタンスは、 rusk.test.db.TestPersistProvider を使用して</t>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>シヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1972,7 +2078,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AR38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP33" sqref="AP33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2269,9 +2377,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="41:44" x14ac:dyDescent="0.15">
-      <c r="AO32" s="5"/>
-      <c r="AP32" s="6"/>
+    <row r="32" spans="41:44" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="AO32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP32" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="33" spans="41:42" x14ac:dyDescent="0.15">
       <c r="AO33" s="5"/>
@@ -2303,4 +2415,69 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>